--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1316,10 +1328,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1363,28 +1375,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
+      <c r="C43" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="2">
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1409,28 +1421,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1750,10 +1762,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1797,28 +1809,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1843,28 +1855,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2126,10 +2138,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2173,28 +2185,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2219,28 +2231,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2502,10 +2514,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2549,28 +2561,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2595,28 +2607,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="2">
+      <c r="I86" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2878,10 +2890,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2925,28 +2937,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2971,28 +2983,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3254,10 +3266,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3301,28 +3313,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3347,28 +3359,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3630,10 +3642,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3677,28 +3689,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3723,28 +3735,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4006,10 +4018,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="J134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4053,28 +4065,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4099,28 +4111,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4324,10 +4336,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4371,28 +4383,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4417,28 +4429,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4584,10 +4596,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="J154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4631,28 +4643,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4677,28 +4689,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4873,10 +4885,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J164" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="2" t="s">
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4920,28 +4932,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4966,28 +4978,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5087,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -518,10 +566,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -565,28 +613,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="4">
+      <c r="A15" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="D15" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -611,28 +659,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="4">
+      <c r="I17" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -894,10 +942,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -941,28 +989,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="4">
+      <c r="A28" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -987,28 +1035,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="4">
+      <c r="B30" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="4">
+      <c r="C30" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="4">
+      <c r="D30" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="4">
+      <c r="E30" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="4">
+      <c r="F30" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="4">
+      <c r="G30" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="4">
+      <c r="H30" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="4">
+      <c r="I30" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1328,10 +1376,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1375,28 +1423,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="4">
+      <c r="A43" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="4">
+      <c r="C43" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="4">
+      <c r="D43" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1421,28 +1469,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="4">
+      <c r="I45" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1762,10 +1810,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="J56" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1809,28 +1857,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="4">
+      <c r="A58" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="4">
+      <c r="B58" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="4">
+      <c r="C58" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="4">
+      <c r="D58" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="4">
+      <c r="E58" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="4">
+      <c r="F58" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="4">
+      <c r="G58" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="4">
+      <c r="H58" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1855,28 +1903,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="4">
+      <c r="B60" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="4">
+      <c r="C60" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="4">
+      <c r="D60" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="4">
+      <c r="E60" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="4">
+      <c r="F60" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="4">
+      <c r="G60" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="4">
+      <c r="H60" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="4">
+      <c r="I60" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2138,10 +2186,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="4" t="s">
+      <c r="K69" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2185,28 +2233,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="4">
+      <c r="A71" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="4">
+      <c r="B71" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="4">
+      <c r="C71" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="4">
+      <c r="D71" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="4">
+      <c r="E71" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="4">
+      <c r="F71" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="4">
+      <c r="G71" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="4">
+      <c r="H71" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2231,28 +2279,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="4">
+      <c r="C73" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="4">
+      <c r="D73" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="4">
+      <c r="I73" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2514,10 +2562,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2561,28 +2609,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="4">
+      <c r="A84" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2607,28 +2655,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="4">
+      <c r="B86" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="4">
+      <c r="C86" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="4">
+      <c r="D86" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="4">
+      <c r="E86" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="4">
+      <c r="F86" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="4">
+      <c r="G86" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="4">
+      <c r="H86" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="4">
+      <c r="I86" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2890,10 +2938,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J95" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="4" t="s">
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2937,28 +2985,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2983,28 +3031,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3266,10 +3314,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3313,28 +3361,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="4">
+      <c r="A110" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3359,28 +3407,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="4">
+      <c r="C112" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="4">
+      <c r="D112" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="4">
+      <c r="I112" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3642,10 +3690,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="J121" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="4" t="s">
+      <c r="K121" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3689,28 +3737,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3735,28 +3783,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="4">
+      <c r="I125" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4018,10 +4066,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="4" t="s">
+      <c r="J134" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="4" t="s">
+      <c r="K134" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4065,28 +4113,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="4">
+      <c r="A136" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="4">
+      <c r="C136" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="4">
+      <c r="D136" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4111,28 +4159,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="4">
+      <c r="I138" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4336,10 +4384,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="4" t="s">
+      <c r="J145" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="K145" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4383,28 +4431,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="4">
+      <c r="A147" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="4">
+      <c r="B147" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="4">
+      <c r="C147" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="4">
+      <c r="D147" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="4">
+      <c r="E147" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="4">
+      <c r="F147" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="4">
+      <c r="G147" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="4">
+      <c r="H147" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4429,28 +4477,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="4">
+      <c r="C149" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="4">
+      <c r="D149" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="4">
+      <c r="I149" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4596,10 +4644,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="4" t="s">
+      <c r="J154" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="4" t="s">
+      <c r="K154" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4643,28 +4691,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="4">
+      <c r="A156" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="4">
+      <c r="C156" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D156" t="s" s="4">
+      <c r="D156" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4689,28 +4737,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="4">
+      <c r="I158" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4885,10 +4933,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="4" t="s">
+      <c r="J164" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="4" t="s">
+      <c r="K164" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4932,28 +4980,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="4">
+      <c r="A166" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4978,28 +5026,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="4">
+      <c r="I168" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5087,10 +5135,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="4" t="s">
+      <c r="J171" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="4" t="s">
+      <c r="K171" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -566,10 +584,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -613,28 +631,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="12">
+      <c r="A15" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D15" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -659,28 +677,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="12">
+      <c r="I17" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -942,10 +960,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -989,28 +1007,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="12">
+      <c r="A28" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1035,28 +1053,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="12">
+      <c r="B30" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="12">
+      <c r="C30" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="12">
+      <c r="F30" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="12">
+      <c r="H30" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="12">
+      <c r="I30" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1376,10 +1394,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1423,28 +1441,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="12">
+      <c r="A43" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="12">
+      <c r="C43" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D43" t="s" s="12">
+      <c r="D43" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1469,28 +1487,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C45" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="12">
+      <c r="I45" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1810,10 +1828,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1857,28 +1875,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="12">
+      <c r="A58" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="12">
+      <c r="B58" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="12">
+      <c r="C58" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D58" t="s" s="12">
+      <c r="D58" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="12">
+      <c r="E58" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="12">
+      <c r="F58" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="12">
+      <c r="G58" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="12">
+      <c r="H58" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1903,28 +1921,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="12">
+      <c r="B60" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="12">
+      <c r="C60" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="12">
+      <c r="D60" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="12">
+      <c r="E60" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="12">
+      <c r="F60" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="12">
+      <c r="G60" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="12">
+      <c r="H60" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="12">
+      <c r="I60" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2186,10 +2204,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K69" s="12" t="s">
+      <c r="K69" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2233,28 +2251,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="12">
+      <c r="A71" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="12">
+      <c r="B71" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="12">
+      <c r="C71" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D71" t="s" s="12">
+      <c r="D71" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="12">
+      <c r="E71" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="12">
+      <c r="F71" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="12">
+      <c r="G71" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="12">
+      <c r="H71" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2279,28 +2297,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="12">
+      <c r="C73" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="12">
+      <c r="D73" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="12">
+      <c r="I73" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2562,10 +2580,10 @@
       <c r="I82">
         <f>((C82-C81)^2+(D82- D81)^2)^.5</f>
       </c>
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K82" s="12" t="s">
+      <c r="K82" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L82" t="n">
@@ -2609,28 +2627,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="12">
+      <c r="A84" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2655,28 +2673,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="B86" t="s" s="12">
+      <c r="B86" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C86" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D86" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E86" t="s" s="12">
+      <c r="E86" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F86" t="s" s="12">
+      <c r="F86" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G86" t="s" s="12">
+      <c r="G86" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H86" t="s" s="12">
+      <c r="H86" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I86" t="s" s="12">
+      <c r="I86" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2938,10 +2956,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="12" t="s">
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2985,28 +3003,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3031,28 +3049,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3314,10 +3332,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="12" t="s">
+      <c r="K108" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3361,28 +3379,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="12">
+      <c r="A110" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3407,28 +3425,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="12">
+      <c r="C112" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="12">
+      <c r="D112" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="12">
+      <c r="I112" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3690,10 +3708,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="12" t="s">
+      <c r="J121" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="12" t="s">
+      <c r="K121" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3737,28 +3755,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="12">
+      <c r="A123" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3783,28 +3801,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="12">
+      <c r="I125" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4066,10 +4084,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="12" t="s">
+      <c r="J134" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K134" s="12" t="s">
+      <c r="K134" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4113,28 +4131,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="12">
+      <c r="A136" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="12">
+      <c r="C136" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D136" t="s" s="12">
+      <c r="D136" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4159,28 +4177,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="12">
+      <c r="I138" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4384,10 +4402,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="12" t="s">
+      <c r="J145" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="12" t="s">
+      <c r="K145" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4431,28 +4449,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="12">
+      <c r="A147" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="12">
+      <c r="B147" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="12">
+      <c r="C147" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="12">
+      <c r="D147" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="12">
+      <c r="E147" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="12">
+      <c r="F147" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="12">
+      <c r="G147" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="12">
+      <c r="H147" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4477,28 +4495,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="12">
+      <c r="C149" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="12">
+      <c r="D149" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="12">
+      <c r="I149" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4644,10 +4662,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="12" t="s">
+      <c r="J154" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="12" t="s">
+      <c r="K154" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4691,28 +4709,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="12">
+      <c r="A156" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="12">
+      <c r="C156" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D156" t="s" s="12">
+      <c r="D156" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4737,28 +4755,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="12">
+      <c r="I158" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4933,10 +4951,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="12" t="s">
+      <c r="J164" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="12" t="s">
+      <c r="K164" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4980,28 +4998,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="12">
+      <c r="A166" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5026,28 +5044,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="12">
+      <c r="I168" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5135,10 +5153,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="12" t="s">
+      <c r="J171" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="12" t="s">
+      <c r="K171" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
